--- a/Analysis/reading_summary_plot.xlsx
+++ b/Analysis/reading_summary_plot.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qli/Documents/GitHub/RunningStreak/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02DD32F-2992-8D4D-A3E3-0B57F22AD08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C51AA-9182-5F48-93C5-5F683633C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{824D5557-2CEA-9D41-B307-732B501A2870}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21040" xr2:uid="{824D5557-2CEA-9D41-B307-732B501A2870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$19</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t># of True Models</t>
   </si>
@@ -55,6 +45,12 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>pre-2007</t>
+  </si>
+  <si>
+    <t>合计=</t>
   </si>
 </sst>
 </file>
@@ -170,23 +166,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -267,10 +246,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -290,67 +265,66 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$A$2:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>2006</c:v>
+                  <c:v>pre-2007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2007</c:v>
+                  <c:v>2008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2008</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2009</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2018</c:v>
+                  <c:v>2019</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2021</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2022</c:v>
+                  <c:v>2023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -359,58 +333,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>76</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>86</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>129</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>156</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>165</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,575 +540,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <cs:styleClr val="auto"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltUpDiag">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
-          <a:schemeClr val="phClr"/>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="22225">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="25400">
-          <a:schemeClr val="lt1"/>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-            <a:tint val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="0"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1177,9 +582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1217,7 +622,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1323,7 +728,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1465,7 +870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1473,15 +878,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596A48EC-934C-6345-B2FE-E6C0FCCAB305}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1492,157 +897,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2006</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:B19)</f>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B3" s="1">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="1">
-        <v>59</v>
+        <v>2009</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2009</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B14" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B15" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B17" s="1">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" s="1">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B19" s="1">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/reading_summary_plot.xlsx
+++ b/Analysis/reading_summary_plot.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qli/Documents/GitHub/RunningStreak/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C51AA-9182-5F48-93C5-5F683633C3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DD54EB-4761-664C-ADDD-AF089A547604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21040" xr2:uid="{824D5557-2CEA-9D41-B307-732B501A2870}"/>
+    <workbookView xWindow="38620" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{824D5557-2CEA-9D41-B307-732B501A2870}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Finiance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t># of True Models</t>
   </si>
@@ -57,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +72,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Proxima Nova"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,9 +120,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,6 +576,361 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3500" baseline="0"/>
+              <a:t>我的资产净值曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40634146341463412"/>
+          <c:y val="2.3923444976076554E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Finiance!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="91440" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Finiance!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Finiance!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.482905982905983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9893162393162394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7735042735042734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2414529914529915</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8376068376068377</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3152-E447-81B5-ABCD15F1CA6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1269402767"/>
+        <c:axId val="1657979375"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1269402767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1657979375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+        <c:majorUnit val="1"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1657979375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1269402767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -565,6 +956,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF4B545-F031-3F45-82AC-CF558AA7F698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -880,13 +1314,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596A48EC-934C-6345-B2FE-E6C0FCCAB305}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -897,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -915,7 +1349,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -926,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -937,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -945,7 +1379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -953,7 +1387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -961,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -969,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -977,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -985,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -993,7 +1427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -1001,7 +1435,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1009,7 +1443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -1017,7 +1451,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -1025,7 +1459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1033,7 +1467,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -1041,7 +1475,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -1049,13 +1483,489 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2024</v>
       </c>
       <c r="B19" s="1">
         <v>110</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7852F76-6B8B-6D43-A583-100971466E97}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20">
+      <c r="A2" s="5">
+        <v>43831</v>
+      </c>
+      <c r="B2" s="10">
+        <f>E2/468</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20">
+      <c r="A3" s="7">
+        <v>44197</v>
+      </c>
+      <c r="B3" s="10">
+        <f t="shared" ref="B3:B7" si="0">E3/468</f>
+        <v>1.482905982905983</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20">
+      <c r="A4" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9893162393162394</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20">
+      <c r="A5" s="7">
+        <v>44927</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7735042735042734</v>
+      </c>
+      <c r="E5" s="8">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20">
+      <c r="A6" s="7">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2414529914529915</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20">
+      <c r="A7" s="7">
+        <v>45658</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" si="0"/>
+        <v>2.8376068376068377</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
